--- a/startup/xlsx/wheel.xlsx
+++ b/startup/xlsx/wheel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="set1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="set2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="set3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="wheel1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="wheel2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="wheel3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Version history" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -976,9 +976,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1222200</xdr:colOff>
+      <xdr:colOff>1221840</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -992,7 +992,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2514600" cy="2738880"/>
+          <a:ext cx="2515320" cy="2738520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1013,9 +1013,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>821160</xdr:colOff>
+      <xdr:colOff>820800</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1024,8 +1024,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3191400" y="6959880"/>
-          <a:ext cx="6642720" cy="2262960"/>
+          <a:off x="3192840" y="6959880"/>
+          <a:ext cx="6643440" cy="2262600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1277,9 +1277,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1222200</xdr:colOff>
+      <xdr:colOff>1221840</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1293,7 +1293,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2514600" cy="2738880"/>
+          <a:ext cx="2515320" cy="2738520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1314,9 +1314,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>821160</xdr:colOff>
+      <xdr:colOff>820800</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1325,8 +1325,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3191400" y="6959880"/>
-          <a:ext cx="6642720" cy="2262960"/>
+          <a:off x="3192840" y="6959880"/>
+          <a:ext cx="6643440" cy="2262600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1365,17 +1365,7 @@
               <a:uFillTx/>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>Instructio</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1300" spc="-1" strike="noStrike" u="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>ns:</a:t>
+            <a:t>Instructions:</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1394,52 +1384,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>1. Add the </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>names of all </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>team </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>members to </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>the green </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>box in row 1</a:t>
+            <a:t>1. Add the names of all team members to the green box in row 1</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1458,43 +1403,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>2. Default </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>values for </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>all </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>parameters </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>go in line 6</a:t>
+            <a:t>2. Default values for all parameters go in line 6</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1513,43 +1422,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>3. Sample-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>specific </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>parameters </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>are entered </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>in rows 7+</a:t>
+            <a:t>3. Sample-specific parameters are entered in rows 7+</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1568,61 +1441,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>4. Default </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>values from </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>line 6 will be </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>used for all </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>cells left </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>blank in </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>rows 7+</a:t>
+            <a:t>4. Default values from line 6 will be used for all cells left blank in rows 7+</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1641,61 +1460,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>5. Specify </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>motor/slit </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>positions in </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>columns </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>Q,R,S; leave </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>blank for no </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>motion</a:t>
+            <a:t>5. Specify motor/slit positions in columns Q,R,S; leave blank for no motion</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1714,52 +1479,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>6. Specify </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>detector </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>position in </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>column T, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>blank </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>means to </a:t>
+            <a:t>6. Specify detector position in column T, blank means to </a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
@@ -1777,16 +1497,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>the detector </a:t>
+            <a:t> the detector </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1805,25 +1516,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>6. Do not </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>add rows </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>above row 7</a:t>
+            <a:t>6. Do not add rows above row 7</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1842,43 +1535,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>7. Do not </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>add </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>columns </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>before </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>column AC</a:t>
+            <a:t>7. Do not add columns before column AC</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1897,79 +1554,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>8. The </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>wheel is </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>correctly </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>mounted if </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>the </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>numbers </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>can be read </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>when facing </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>the wheel</a:t>
+            <a:t>8. The wheel is correctly mounted if the numbers can be read when facing the wheel</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1993,9 +1578,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1222200</xdr:colOff>
+      <xdr:colOff>1221840</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2009,7 +1594,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2514600" cy="2738880"/>
+          <a:ext cx="2515320" cy="2738520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2030,9 +1615,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>821160</xdr:colOff>
+      <xdr:colOff>820800</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2041,8 +1626,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3191400" y="6959880"/>
-          <a:ext cx="6642720" cy="2262960"/>
+          <a:off x="3192840" y="6959880"/>
+          <a:ext cx="6643440" cy="2262600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2081,17 +1666,7 @@
               <a:uFillTx/>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>Instructio</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1300" spc="-1" strike="noStrike" u="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>ns:</a:t>
+            <a:t>Instructions:</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2110,52 +1685,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>1. Add the </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>names of all </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>team </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>members to </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>the green </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>box in row 1</a:t>
+            <a:t>1. Add the names of all team members to the green box in row 1</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2174,43 +1704,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>2. Default </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>values for </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>all </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>parameters </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>go in line 6</a:t>
+            <a:t>2. Default values for all parameters go in line 6</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2229,43 +1723,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>3. Sample-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>specific </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>parameters </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>are entered </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>in rows 7+</a:t>
+            <a:t>3. Sample-specific parameters are entered in rows 7+</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2284,61 +1742,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>4. Default </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>values from </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>line 6 will be </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>used for all </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>cells left </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>blank in </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>rows 7+</a:t>
+            <a:t>4. Default values from line 6 will be used for all cells left blank in rows 7+</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2357,61 +1761,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>5. Specify </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>motor/slit </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>positions in </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>columns </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>Q,R,S; leave </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>blank for no </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>motion</a:t>
+            <a:t>5. Specify motor/slit positions in columns Q,R,S; leave blank for no motion</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2430,52 +1780,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>6. Specify </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>detector </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>position in </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>column T, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>blank </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>means to </a:t>
+            <a:t>6. Specify detector position in column T, blank means to </a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
@@ -2493,16 +1798,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>the detector </a:t>
+            <a:t> the detector </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2521,25 +1817,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>6. Do not </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>add rows </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>above row 7</a:t>
+            <a:t>6. Do not add rows above row 7</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2558,43 +1836,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>7. Do not </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>add </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>columns </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>before </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>column AC</a:t>
+            <a:t>7. Do not add columns before column AC</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2613,79 +1855,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>8. The </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>wheel is </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>correctly </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>mounted if </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>the </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>numbers </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>can be read </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>when facing </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>the wheel</a:t>
+            <a:t>8. The wheel is correctly mounted if the numbers can be read when facing the wheel</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2705,7 +1875,7 @@
   </sheetPr>
   <dimension ref="B1:AC30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
@@ -2713,7 +1883,7 @@
       <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3851,7 +3021,7 @@
       <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4964,7 +4134,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4981,7 +4151,7 @@
   </sheetPr>
   <dimension ref="B1:AC30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
@@ -4989,7 +4159,7 @@
       <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -6102,7 +5272,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6123,9 +5293,9 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
   </cols>
   <sheetData>

--- a/startup/xlsx/wheel.xlsx
+++ b/startup/xlsx/wheel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="wheel1" sheetId="1" state="visible" r:id="rId2"/>
@@ -976,9 +976,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1221840</xdr:colOff>
+      <xdr:colOff>1221480</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -992,7 +992,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2515320" cy="2738520"/>
+          <a:ext cx="2515680" cy="2738160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1013,9 +1013,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>820800</xdr:colOff>
+      <xdr:colOff>820440</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1024,8 +1024,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3192840" y="6959880"/>
-          <a:ext cx="6643440" cy="2262600"/>
+          <a:off x="3193560" y="6959880"/>
+          <a:ext cx="6643800" cy="2262240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1277,9 +1277,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1221840</xdr:colOff>
+      <xdr:colOff>1221480</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1293,7 +1293,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2515320" cy="2738520"/>
+          <a:ext cx="2515680" cy="2738160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1314,9 +1314,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>820800</xdr:colOff>
+      <xdr:colOff>820440</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1325,8 +1325,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3192840" y="6959880"/>
-          <a:ext cx="6643440" cy="2262600"/>
+          <a:off x="3193560" y="6959880"/>
+          <a:ext cx="6643800" cy="2262240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1578,9 +1578,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1221840</xdr:colOff>
+      <xdr:colOff>1221480</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1594,7 +1594,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2515320" cy="2738520"/>
+          <a:ext cx="2515680" cy="2738160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1615,9 +1615,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>820800</xdr:colOff>
+      <xdr:colOff>820440</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1626,8 +1626,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3192840" y="6959880"/>
-          <a:ext cx="6643440" cy="2262600"/>
+          <a:off x="3193560" y="6959880"/>
+          <a:ext cx="6643800" cy="2262240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1875,15 +1875,15 @@
   </sheetPr>
   <dimension ref="B1:AC30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -1898,9 +1898,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="26" min="21" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="27" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="24.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3018,10 +3018,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="T6" activeCellId="0" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3036,9 +3036,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="26" min="21" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="27" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="24.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4078,7 +4078,7 @@
     <mergeCell ref="U4:Z4"/>
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
-  <dataValidations count="13">
+  <dataValidations count="14">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
@@ -4127,7 +4127,11 @@
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:T30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:Q30" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T30" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
@@ -4151,15 +4155,15 @@
   </sheetPr>
   <dimension ref="B1:AC30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="T6" activeCellId="0" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4174,9 +4178,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="26" min="21" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="27" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="24.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5216,7 +5220,7 @@
     <mergeCell ref="U4:Z4"/>
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
-  <dataValidations count="13">
+  <dataValidations count="14">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
@@ -5265,7 +5269,11 @@
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:T30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:Q30" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T30" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
@@ -5293,7 +5301,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>

--- a/startup/xlsx/wheel.xlsx
+++ b/startup/xlsx/wheel.xlsx
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="67">
   <si>
     <t xml:space="preserve">Sample wheel</t>
   </si>
@@ -139,9 +139,6 @@
     <t xml:space="preserve">Experimenters:</t>
   </si>
   <si>
-    <t xml:space="preserve">Version: 6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Change edge at start?</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
     <t xml:space="preserve">0.5  0.5  0.5  0.5</t>
   </si>
   <si>
+    <t xml:space="preserve">Current</t>
+  </si>
+  <si>
     <t xml:space="preserve">Version</t>
   </si>
   <si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t xml:space="preserve">Added motor grid automation, 3 empty tabs in each template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added LakeShore 331</t>
   </si>
 </sst>
 </file>
@@ -976,9 +979,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1221480</xdr:colOff>
+      <xdr:colOff>1221120</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>55080</xdr:rowOff>
+      <xdr:rowOff>54720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -992,7 +995,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2515680" cy="2738160"/>
+          <a:ext cx="2516040" cy="2737800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1013,9 +1016,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>820440</xdr:colOff>
+      <xdr:colOff>820080</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1024,8 +1027,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3193560" y="6959880"/>
-          <a:ext cx="6643800" cy="2262240"/>
+          <a:off x="3193920" y="6959880"/>
+          <a:ext cx="6644160" cy="2261880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1277,9 +1280,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1221480</xdr:colOff>
+      <xdr:colOff>1221120</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>55080</xdr:rowOff>
+      <xdr:rowOff>54720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1293,7 +1296,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2515680" cy="2738160"/>
+          <a:ext cx="2516040" cy="2737800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1314,9 +1317,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>820440</xdr:colOff>
+      <xdr:colOff>820080</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1325,8 +1328,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3193560" y="6959880"/>
-          <a:ext cx="6643800" cy="2262240"/>
+          <a:off x="3193920" y="6959880"/>
+          <a:ext cx="6644160" cy="2261880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1578,9 +1581,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1221480</xdr:colOff>
+      <xdr:colOff>1221120</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>55080</xdr:rowOff>
+      <xdr:rowOff>54720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1594,7 +1597,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2515680" cy="2738160"/>
+          <a:ext cx="2516040" cy="2737800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1615,9 +1618,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>820440</xdr:colOff>
+      <xdr:colOff>820080</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1626,8 +1629,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3193560" y="6959880"/>
-          <a:ext cx="6643800" cy="2262240"/>
+          <a:off x="3193920" y="6959880"/>
+          <a:ext cx="6644160" cy="2261880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1875,15 +1878,15 @@
   </sheetPr>
   <dimension ref="B1:AC30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -1935,29 +1938,30 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="s">
-        <v>2</v>
+      <c r="B2" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
+        <v>Version: 8</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="L2" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -1997,37 +2001,37 @@
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
@@ -2035,142 +2039,142 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="H5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="I5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="J5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="K5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="L5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="M5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="N5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="O5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="P5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="Q5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="R5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="S5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="T5" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="26" t="s">
+      <c r="U5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="V5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="17" t="s">
+      <c r="W5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="W5" s="17" t="s">
+      <c r="X5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="Y5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="17" t="s">
+      <c r="Z5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="22" t="s">
+      <c r="AA5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AA5" s="20" t="s">
+      <c r="AB5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AB5" s="27" t="s">
+      <c r="AC5" s="27" t="s">
         <v>42</v>
-      </c>
-      <c r="AC5" s="27" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" s="28" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>44</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>45</v>
       </c>
       <c r="E6" s="29" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="H6" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="I6" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="J6" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="K6" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="L6" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="M6" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="N6" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="O6" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="P6" s="41" t="s">
         <v>55</v>
-      </c>
-      <c r="P6" s="41" t="s">
-        <v>56</v>
       </c>
       <c r="Q6" s="42"/>
       <c r="R6" s="41"/>
@@ -2209,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="49"/>
       <c r="E7" s="11"/>
@@ -2239,7 +2243,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="49"/>
       <c r="E8" s="11"/>
@@ -2269,7 +2273,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="11"/>
@@ -2299,7 +2303,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="11"/>
@@ -2329,7 +2333,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="11"/>
@@ -2359,7 +2363,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="11"/>
@@ -2389,7 +2393,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="11"/>
@@ -2419,7 +2423,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="11"/>
@@ -2449,7 +2453,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="11"/>
@@ -2479,7 +2483,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="11"/>
@@ -2509,7 +2513,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="11"/>
@@ -2539,7 +2543,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="11"/>
@@ -2569,7 +2573,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="11"/>
@@ -2599,7 +2603,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="11"/>
@@ -2629,7 +2633,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="11"/>
@@ -2659,7 +2663,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="11"/>
@@ -2689,7 +2693,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="11"/>
@@ -2719,7 +2723,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="11"/>
@@ -2749,7 +2753,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="11"/>
@@ -2779,7 +2783,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="11"/>
@@ -2809,7 +2813,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="11"/>
@@ -2839,7 +2843,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="11"/>
@@ -2869,7 +2873,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="11"/>
@@ -2899,7 +2903,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="11"/>
@@ -3013,15 +3017,15 @@
   </sheetPr>
   <dimension ref="B1:AC30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="T6" activeCellId="0" sqref="T6"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3073,29 +3077,30 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="s">
-        <v>2</v>
+      <c r="B2" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
+        <v>Version: 8</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="L2" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -3135,37 +3140,37 @@
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
@@ -3173,142 +3178,142 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="H5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="I5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="J5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="K5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="L5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="M5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="N5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="O5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="P5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="Q5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="R5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="S5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="T5" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="26" t="s">
+      <c r="U5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="V5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="17" t="s">
+      <c r="W5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="W5" s="17" t="s">
+      <c r="X5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="Y5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="17" t="s">
+      <c r="Z5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="22" t="s">
+      <c r="AA5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AA5" s="20" t="s">
+      <c r="AB5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AB5" s="27" t="s">
+      <c r="AC5" s="27" t="s">
         <v>42</v>
-      </c>
-      <c r="AC5" s="27" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" s="28" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>44</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>45</v>
       </c>
       <c r="E6" s="29" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="H6" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="I6" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="J6" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="K6" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="L6" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="M6" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="N6" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="O6" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="P6" s="41" t="s">
         <v>55</v>
-      </c>
-      <c r="P6" s="41" t="s">
-        <v>56</v>
       </c>
       <c r="Q6" s="42"/>
       <c r="R6" s="41"/>
@@ -3347,7 +3352,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="49"/>
       <c r="E7" s="11"/>
@@ -3377,7 +3382,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="49"/>
       <c r="E8" s="11"/>
@@ -3407,7 +3412,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="11"/>
@@ -3437,7 +3442,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="11"/>
@@ -3467,7 +3472,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="11"/>
@@ -3497,7 +3502,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="11"/>
@@ -3527,7 +3532,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="11"/>
@@ -3557,7 +3562,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="11"/>
@@ -3587,7 +3592,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="11"/>
@@ -3617,7 +3622,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="11"/>
@@ -3647,7 +3652,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="11"/>
@@ -3677,7 +3682,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="11"/>
@@ -3707,7 +3712,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="11"/>
@@ -3737,7 +3742,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="11"/>
@@ -3767,7 +3772,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="11"/>
@@ -3797,7 +3802,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="11"/>
@@ -3827,7 +3832,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="11"/>
@@ -3857,7 +3862,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="11"/>
@@ -3887,7 +3892,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="11"/>
@@ -3917,7 +3922,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="11"/>
@@ -3947,7 +3952,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="11"/>
@@ -3977,7 +3982,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="11"/>
@@ -4007,7 +4012,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="11"/>
@@ -4037,7 +4042,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="11"/>
@@ -4155,15 +4160,15 @@
   </sheetPr>
   <dimension ref="B1:AC30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="T6" activeCellId="0" sqref="T6"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4215,29 +4220,30 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="s">
-        <v>2</v>
+      <c r="B2" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
+        <v>Version: 8</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="L2" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -4277,37 +4283,37 @@
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
@@ -4315,142 +4321,142 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="H5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="I5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="J5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="K5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="L5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="M5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="N5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="O5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="P5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="Q5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="R5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="S5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="T5" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="26" t="s">
+      <c r="U5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="V5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="17" t="s">
+      <c r="W5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="W5" s="17" t="s">
+      <c r="X5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="Y5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="17" t="s">
+      <c r="Z5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="22" t="s">
+      <c r="AA5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AA5" s="20" t="s">
+      <c r="AB5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AB5" s="27" t="s">
+      <c r="AC5" s="27" t="s">
         <v>42</v>
-      </c>
-      <c r="AC5" s="27" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" s="28" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>44</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>45</v>
       </c>
       <c r="E6" s="29" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="H6" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="I6" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="J6" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="K6" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="L6" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="M6" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="N6" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="O6" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="P6" s="41" t="s">
         <v>55</v>
-      </c>
-      <c r="P6" s="41" t="s">
-        <v>56</v>
       </c>
       <c r="Q6" s="42"/>
       <c r="R6" s="41"/>
@@ -4489,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="49"/>
       <c r="E7" s="11"/>
@@ -4519,7 +4525,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="49"/>
       <c r="E8" s="11"/>
@@ -4549,7 +4555,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="11"/>
@@ -4579,7 +4585,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="11"/>
@@ -4609,7 +4615,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="11"/>
@@ -4639,7 +4645,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="11"/>
@@ -4669,7 +4675,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="11"/>
@@ -4699,7 +4705,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="11"/>
@@ -4729,7 +4735,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="11"/>
@@ -4759,7 +4765,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="11"/>
@@ -4789,7 +4795,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="11"/>
@@ -4819,7 +4825,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="11"/>
@@ -4849,7 +4855,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="11"/>
@@ -4879,7 +4885,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="11"/>
@@ -4909,7 +4915,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="11"/>
@@ -4939,7 +4945,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="11"/>
@@ -4969,7 +4975,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="11"/>
@@ -4999,7 +5005,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="11"/>
@@ -5029,7 +5035,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="11"/>
@@ -5059,7 +5065,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="11"/>
@@ -5089,7 +5095,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="11"/>
@@ -5119,7 +5125,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="11"/>
@@ -5149,7 +5155,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="11"/>
@@ -5179,7 +5185,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="11"/>
@@ -5295,13 +5301,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -5309,66 +5315,95 @@
   <sheetData>
     <row r="1" s="59" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B2" s="59"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="27" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3" s="59"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="27"/>
+      <c r="B4" s="59"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="59" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/startup/xlsx/wheel.xlsx
+++ b/startup/xlsx/wheel.xlsx
@@ -338,9 +338,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -676,7 +677,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -684,7 +685,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -776,7 +777,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -828,15 +829,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -848,7 +849,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -876,15 +877,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -979,9 +980,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1221120</xdr:colOff>
+      <xdr:colOff>1220760</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -995,7 +996,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2516040" cy="2737800"/>
+          <a:ext cx="2516400" cy="2737440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1016,9 +1017,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>820080</xdr:colOff>
+      <xdr:colOff>819720</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1027,8 +1028,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3193920" y="6959880"/>
-          <a:ext cx="6644160" cy="2261880"/>
+          <a:off x="3194640" y="6959880"/>
+          <a:ext cx="6644520" cy="2261520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1280,9 +1281,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1221120</xdr:colOff>
+      <xdr:colOff>1220760</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1296,7 +1297,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2516040" cy="2737800"/>
+          <a:ext cx="2516400" cy="2737440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1317,9 +1318,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>820080</xdr:colOff>
+      <xdr:colOff>819720</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1328,8 +1329,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3193920" y="6959880"/>
-          <a:ext cx="6644160" cy="2261880"/>
+          <a:off x="3194640" y="6959880"/>
+          <a:ext cx="6644520" cy="2261520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1581,9 +1582,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1221120</xdr:colOff>
+      <xdr:colOff>1220760</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1597,7 +1598,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2516040" cy="2737800"/>
+          <a:ext cx="2516400" cy="2737440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1618,9 +1619,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>820080</xdr:colOff>
+      <xdr:colOff>819720</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1629,8 +1630,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3193920" y="6959880"/>
-          <a:ext cx="6644160" cy="2261880"/>
+          <a:off x="3194640" y="6959880"/>
+          <a:ext cx="6644520" cy="2261520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1883,10 +1884,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2196,9 +2197,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="44" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="Y6" s="44" t="b">
+        <v>1</v>
       </c>
       <c r="Z6" s="45" t="n">
         <f aca="false">FALSE()</f>
@@ -2944,8 +2944,8 @@
     <mergeCell ref="U4:Z4"/>
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
-  <dataValidations count="13">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z30" type="list">
+  <dataValidations count="14">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z30 U7:Y30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2997,6 +2997,10 @@
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3022,10 +3026,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3335,9 +3339,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="44" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="Y6" s="44" t="b">
+        <v>1</v>
       </c>
       <c r="Z6" s="45" t="n">
         <f aca="false">FALSE()</f>
@@ -4083,8 +4086,8 @@
     <mergeCell ref="U4:Z4"/>
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
-  <dataValidations count="14">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z30" type="list">
+  <dataValidations count="15">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z30 U7:Y30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4140,6 +4143,10 @@
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4165,10 +4172,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4478,9 +4485,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="44" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="Y6" s="44" t="b">
+        <v>1</v>
       </c>
       <c r="Z6" s="45" t="n">
         <f aca="false">FALSE()</f>
@@ -5226,8 +5232,8 @@
     <mergeCell ref="U4:Z4"/>
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
-  <dataValidations count="14">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z30" type="list">
+  <dataValidations count="15">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z30 U7:Y30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5283,6 +5289,10 @@
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5307,7 +5317,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>

--- a/startup/xlsx/wheel.xlsx
+++ b/startup/xlsx/wheel.xlsx
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="68">
   <si>
     <t xml:space="preserve">Sample wheel</t>
   </si>
@@ -154,6 +154,9 @@
     <t xml:space="preserve">Add element to filename?</t>
   </si>
   <si>
+    <t xml:space="preserve">Number of repetitions</t>
+  </si>
+  <si>
     <t xml:space="preserve">File name</t>
   </si>
   <si>
@@ -187,9 +190,6 @@
     <t xml:space="preserve">Filename</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of repetitions</t>
-  </si>
-  <si>
     <t xml:space="preserve">Starting scan number</t>
   </si>
   <si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t xml:space="preserve">Added LakeShore 331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loop over entire macro</t>
   </si>
 </sst>
 </file>
@@ -693,12 +696,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -980,9 +983,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1220760</xdr:colOff>
+      <xdr:colOff>1220400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -996,7 +999,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2516400" cy="2737440"/>
+          <a:ext cx="2516400" cy="2737080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1017,9 +1020,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>819720</xdr:colOff>
+      <xdr:colOff>819360</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1028,8 +1031,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3194640" y="6959880"/>
-          <a:ext cx="6644520" cy="2261520"/>
+          <a:off x="3195360" y="6959880"/>
+          <a:ext cx="6644520" cy="2261160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1281,9 +1284,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1220760</xdr:colOff>
+      <xdr:colOff>1220400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1297,7 +1300,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2516400" cy="2737440"/>
+          <a:ext cx="2516400" cy="2737080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1318,9 +1321,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>819720</xdr:colOff>
+      <xdr:colOff>819360</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1329,8 +1332,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3194640" y="6959880"/>
-          <a:ext cx="6644520" cy="2261520"/>
+          <a:off x="3195360" y="6959880"/>
+          <a:ext cx="6644520" cy="2261160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1582,9 +1585,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1220760</xdr:colOff>
+      <xdr:colOff>1220400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1598,7 +1601,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2516400" cy="2737440"/>
+          <a:ext cx="2516400" cy="2737080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1619,9 +1622,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>819720</xdr:colOff>
+      <xdr:colOff>819360</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1630,8 +1633,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3194640" y="6959880"/>
-          <a:ext cx="6644520" cy="2261520"/>
+          <a:off x="3195360" y="6959880"/>
+          <a:ext cx="6644520" cy="2261160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1884,10 +1887,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+      <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -1941,7 +1944,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 8</v>
+        <v>Version: 9</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -1964,75 +1967,79 @@
       <c r="L2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="10"/>
+      <c r="M2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="9"/>
       <c r="V2" s="0"/>
       <c r="W2" s="0"/>
       <c r="X2" s="0"/>
       <c r="Y2" s="0"/>
-      <c r="Z2" s="10"/>
+      <c r="Z2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="10"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="9"/>
       <c r="V3" s="0"/>
       <c r="W3" s="0"/>
       <c r="X3" s="0"/>
       <c r="Y3" s="0"/>
-      <c r="Z3" s="10"/>
+      <c r="Z3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
@@ -2040,23 +2047,23 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>19</v>
@@ -2197,7 +2204,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="44" t="b">
+      <c r="Y6" s="44" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="Z6" s="45" t="n">
@@ -2228,7 +2236,7 @@
       <c r="N7" s="52"/>
       <c r="O7" s="28"/>
       <c r="P7" s="53"/>
-      <c r="S7" s="9"/>
+      <c r="S7" s="10"/>
       <c r="T7" s="54"/>
       <c r="U7" s="55"/>
       <c r="V7" s="56"/>
@@ -2258,7 +2266,7 @@
       <c r="N8" s="52"/>
       <c r="O8" s="28"/>
       <c r="P8" s="53"/>
-      <c r="S8" s="9"/>
+      <c r="S8" s="10"/>
       <c r="T8" s="54"/>
       <c r="U8" s="55"/>
       <c r="V8" s="56"/>
@@ -2288,7 +2296,7 @@
       <c r="N9" s="52"/>
       <c r="O9" s="28"/>
       <c r="P9" s="53"/>
-      <c r="S9" s="9"/>
+      <c r="S9" s="10"/>
       <c r="T9" s="54"/>
       <c r="U9" s="55"/>
       <c r="V9" s="56"/>
@@ -2318,7 +2326,7 @@
       <c r="N10" s="52"/>
       <c r="O10" s="28"/>
       <c r="P10" s="53"/>
-      <c r="S10" s="9"/>
+      <c r="S10" s="10"/>
       <c r="T10" s="54"/>
       <c r="U10" s="55"/>
       <c r="V10" s="56"/>
@@ -2348,7 +2356,7 @@
       <c r="N11" s="52"/>
       <c r="O11" s="28"/>
       <c r="P11" s="53"/>
-      <c r="S11" s="9"/>
+      <c r="S11" s="10"/>
       <c r="T11" s="54"/>
       <c r="U11" s="55"/>
       <c r="V11" s="56"/>
@@ -2378,7 +2386,7 @@
       <c r="N12" s="52"/>
       <c r="O12" s="28"/>
       <c r="P12" s="53"/>
-      <c r="S12" s="9"/>
+      <c r="S12" s="10"/>
       <c r="T12" s="54"/>
       <c r="U12" s="55"/>
       <c r="V12" s="56"/>
@@ -2408,7 +2416,7 @@
       <c r="N13" s="52"/>
       <c r="O13" s="28"/>
       <c r="P13" s="53"/>
-      <c r="S13" s="9"/>
+      <c r="S13" s="10"/>
       <c r="T13" s="54"/>
       <c r="U13" s="55"/>
       <c r="V13" s="56"/>
@@ -2438,7 +2446,7 @@
       <c r="N14" s="52"/>
       <c r="O14" s="28"/>
       <c r="P14" s="53"/>
-      <c r="S14" s="9"/>
+      <c r="S14" s="10"/>
       <c r="T14" s="54"/>
       <c r="U14" s="55"/>
       <c r="V14" s="56"/>
@@ -2468,7 +2476,7 @@
       <c r="N15" s="52"/>
       <c r="O15" s="28"/>
       <c r="P15" s="53"/>
-      <c r="S15" s="9"/>
+      <c r="S15" s="10"/>
       <c r="T15" s="54"/>
       <c r="U15" s="55"/>
       <c r="V15" s="56"/>
@@ -2498,7 +2506,7 @@
       <c r="N16" s="52"/>
       <c r="O16" s="28"/>
       <c r="P16" s="53"/>
-      <c r="S16" s="9"/>
+      <c r="S16" s="10"/>
       <c r="T16" s="54"/>
       <c r="U16" s="55"/>
       <c r="V16" s="56"/>
@@ -2528,7 +2536,7 @@
       <c r="N17" s="52"/>
       <c r="O17" s="28"/>
       <c r="P17" s="53"/>
-      <c r="S17" s="9"/>
+      <c r="S17" s="10"/>
       <c r="T17" s="54"/>
       <c r="U17" s="55"/>
       <c r="V17" s="56"/>
@@ -2558,7 +2566,7 @@
       <c r="N18" s="52"/>
       <c r="O18" s="28"/>
       <c r="P18" s="53"/>
-      <c r="S18" s="9"/>
+      <c r="S18" s="10"/>
       <c r="T18" s="54"/>
       <c r="U18" s="55"/>
       <c r="V18" s="56"/>
@@ -2588,7 +2596,7 @@
       <c r="N19" s="52"/>
       <c r="O19" s="28"/>
       <c r="P19" s="53"/>
-      <c r="S19" s="9"/>
+      <c r="S19" s="10"/>
       <c r="T19" s="54"/>
       <c r="U19" s="55"/>
       <c r="V19" s="56"/>
@@ -2618,7 +2626,7 @@
       <c r="N20" s="52"/>
       <c r="O20" s="28"/>
       <c r="P20" s="53"/>
-      <c r="S20" s="9"/>
+      <c r="S20" s="10"/>
       <c r="T20" s="54"/>
       <c r="U20" s="55"/>
       <c r="V20" s="56"/>
@@ -2648,7 +2656,7 @@
       <c r="N21" s="52"/>
       <c r="O21" s="28"/>
       <c r="P21" s="53"/>
-      <c r="S21" s="9"/>
+      <c r="S21" s="10"/>
       <c r="T21" s="54"/>
       <c r="U21" s="55"/>
       <c r="V21" s="56"/>
@@ -2678,7 +2686,7 @@
       <c r="N22" s="52"/>
       <c r="O22" s="28"/>
       <c r="P22" s="53"/>
-      <c r="S22" s="9"/>
+      <c r="S22" s="10"/>
       <c r="T22" s="54"/>
       <c r="U22" s="55"/>
       <c r="V22" s="56"/>
@@ -2708,7 +2716,7 @@
       <c r="N23" s="52"/>
       <c r="O23" s="28"/>
       <c r="P23" s="53"/>
-      <c r="S23" s="9"/>
+      <c r="S23" s="10"/>
       <c r="T23" s="54"/>
       <c r="U23" s="55"/>
       <c r="V23" s="56"/>
@@ -2738,7 +2746,7 @@
       <c r="N24" s="52"/>
       <c r="O24" s="28"/>
       <c r="P24" s="53"/>
-      <c r="S24" s="9"/>
+      <c r="S24" s="10"/>
       <c r="T24" s="54"/>
       <c r="U24" s="55"/>
       <c r="V24" s="56"/>
@@ -2768,7 +2776,7 @@
       <c r="N25" s="52"/>
       <c r="O25" s="28"/>
       <c r="P25" s="53"/>
-      <c r="S25" s="9"/>
+      <c r="S25" s="10"/>
       <c r="T25" s="54"/>
       <c r="U25" s="55"/>
       <c r="V25" s="56"/>
@@ -2798,7 +2806,7 @@
       <c r="N26" s="52"/>
       <c r="O26" s="28"/>
       <c r="P26" s="53"/>
-      <c r="S26" s="9"/>
+      <c r="S26" s="10"/>
       <c r="T26" s="54"/>
       <c r="U26" s="55"/>
       <c r="V26" s="56"/>
@@ -2828,7 +2836,7 @@
       <c r="N27" s="52"/>
       <c r="O27" s="28"/>
       <c r="P27" s="53"/>
-      <c r="S27" s="9"/>
+      <c r="S27" s="10"/>
       <c r="T27" s="54"/>
       <c r="U27" s="55"/>
       <c r="V27" s="56"/>
@@ -2858,7 +2866,7 @@
       <c r="N28" s="52"/>
       <c r="O28" s="28"/>
       <c r="P28" s="53"/>
-      <c r="S28" s="9"/>
+      <c r="S28" s="10"/>
       <c r="T28" s="54"/>
       <c r="U28" s="55"/>
       <c r="V28" s="56"/>
@@ -2888,7 +2896,7 @@
       <c r="N29" s="52"/>
       <c r="O29" s="28"/>
       <c r="P29" s="53"/>
-      <c r="S29" s="9"/>
+      <c r="S29" s="10"/>
       <c r="T29" s="54"/>
       <c r="U29" s="55"/>
       <c r="V29" s="56"/>
@@ -2918,1149 +2926,7 @@
       <c r="N30" s="52"/>
       <c r="O30" s="28"/>
       <c r="P30" s="53"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="58"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:Z1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:Z4"/>
-    <mergeCell ref="AA4:AC4"/>
-  </mergeCells>
-  <dataValidations count="14">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z30 U7:Y30" type="list">
-      <formula1>"True,False"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
-      <formula1>"K,L3,L2,L1"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
-      <formula1>"unfocused,focused"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
-      <formula1>0</formula1>
-      <formula2>1000</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
-      <formula1>1</formula1>
-      <formula2>24</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
-      <formula1>"Yes,No"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
-      <formula1>-0.1</formula1>
-      <formula2>8</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
-      <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:T30" type="none">
-      <formula1>10</formula1>
-      <formula2>210</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
-      <formula1>"True,False"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:AC30"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="29.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="26" min="21" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="27" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="24.87"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="str">
-        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 8</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="0"/>
-      <c r="W2" s="0"/>
-      <c r="X2" s="0"/>
-      <c r="Y2" s="0"/>
-      <c r="Z2" s="10"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="0"/>
-      <c r="W3" s="0"/>
-      <c r="X3" s="0"/>
-      <c r="Y3" s="0"/>
-      <c r="Z3" s="10"/>
-    </row>
-    <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1"/>
-      <c r="C4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-    </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="V5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="X5" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y5" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z5" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA5" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB5" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC5" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" s="28" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="43" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="V6" s="44" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="W6" s="44" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X6" s="44" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="45" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="41"/>
-    </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="53"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="58"/>
-    </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="53"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="58"/>
-    </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="47" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="53"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="58"/>
-    </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="47" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="53"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="58"/>
-    </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="47" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="53"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="58"/>
-    </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="47" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="53"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="58"/>
-    </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="47" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="53"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="58"/>
-    </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="47" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="53"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="58"/>
-    </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="47" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="53"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="58"/>
-    </row>
-    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="47" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="53"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="58"/>
-    </row>
-    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="47" t="n">
-        <v>11</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="53"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="58"/>
-    </row>
-    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="47" t="n">
-        <v>12</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="53"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="58"/>
-    </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="47" t="n">
-        <v>13</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="53"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="58"/>
-    </row>
-    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="47" t="n">
-        <v>14</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="53"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="58"/>
-    </row>
-    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="47" t="n">
-        <v>15</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="53"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="58"/>
-    </row>
-    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="47" t="n">
-        <v>16</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="53"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="58"/>
-    </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="47" t="n">
-        <v>17</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="53"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="58"/>
-    </row>
-    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="47" t="n">
-        <v>18</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="53"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="58"/>
-    </row>
-    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="47" t="n">
-        <v>19</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="53"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="58"/>
-    </row>
-    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="47" t="n">
-        <v>20</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="53"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="58"/>
-    </row>
-    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="47" t="n">
-        <v>21</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="53"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="58"/>
-    </row>
-    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="47" t="n">
-        <v>22</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="53"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="58"/>
-    </row>
-    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="47" t="n">
-        <v>23</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="53"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="55"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="58"/>
-    </row>
-    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="47" t="n">
-        <v>24</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="53"/>
-      <c r="S30" s="9"/>
+      <c r="S30" s="10"/>
       <c r="T30" s="54"/>
       <c r="U30" s="55"/>
       <c r="V30" s="56"/>
@@ -4135,11 +3001,7 @@
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:Q30" type="none">
-      <formula1>10</formula1>
-      <formula2>210</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:T30" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
@@ -4147,10 +3009,14 @@
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+      <formula1>1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4160,7 +3026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4172,10 +3038,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+      <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4229,7 +3095,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 8</v>
+        <v>Version: 9</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -4252,75 +3118,79 @@
       <c r="L2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="10"/>
+      <c r="M2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="9"/>
       <c r="V2" s="0"/>
       <c r="W2" s="0"/>
       <c r="X2" s="0"/>
       <c r="Y2" s="0"/>
-      <c r="Z2" s="10"/>
+      <c r="Z2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="10"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="9"/>
       <c r="V3" s="0"/>
       <c r="W3" s="0"/>
       <c r="X3" s="0"/>
       <c r="Y3" s="0"/>
-      <c r="Z3" s="10"/>
+      <c r="Z3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
@@ -4328,23 +3198,23 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>19</v>
@@ -4485,7 +3355,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="44" t="b">
+      <c r="Y6" s="44" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="Z6" s="45" t="n">
@@ -4516,7 +3387,7 @@
       <c r="N7" s="52"/>
       <c r="O7" s="28"/>
       <c r="P7" s="53"/>
-      <c r="S7" s="9"/>
+      <c r="S7" s="10"/>
       <c r="T7" s="54"/>
       <c r="U7" s="55"/>
       <c r="V7" s="56"/>
@@ -4546,7 +3417,7 @@
       <c r="N8" s="52"/>
       <c r="O8" s="28"/>
       <c r="P8" s="53"/>
-      <c r="S8" s="9"/>
+      <c r="S8" s="10"/>
       <c r="T8" s="54"/>
       <c r="U8" s="55"/>
       <c r="V8" s="56"/>
@@ -4576,7 +3447,7 @@
       <c r="N9" s="52"/>
       <c r="O9" s="28"/>
       <c r="P9" s="53"/>
-      <c r="S9" s="9"/>
+      <c r="S9" s="10"/>
       <c r="T9" s="54"/>
       <c r="U9" s="55"/>
       <c r="V9" s="56"/>
@@ -4606,7 +3477,7 @@
       <c r="N10" s="52"/>
       <c r="O10" s="28"/>
       <c r="P10" s="53"/>
-      <c r="S10" s="9"/>
+      <c r="S10" s="10"/>
       <c r="T10" s="54"/>
       <c r="U10" s="55"/>
       <c r="V10" s="56"/>
@@ -4636,7 +3507,7 @@
       <c r="N11" s="52"/>
       <c r="O11" s="28"/>
       <c r="P11" s="53"/>
-      <c r="S11" s="9"/>
+      <c r="S11" s="10"/>
       <c r="T11" s="54"/>
       <c r="U11" s="55"/>
       <c r="V11" s="56"/>
@@ -4666,7 +3537,7 @@
       <c r="N12" s="52"/>
       <c r="O12" s="28"/>
       <c r="P12" s="53"/>
-      <c r="S12" s="9"/>
+      <c r="S12" s="10"/>
       <c r="T12" s="54"/>
       <c r="U12" s="55"/>
       <c r="V12" s="56"/>
@@ -4696,7 +3567,7 @@
       <c r="N13" s="52"/>
       <c r="O13" s="28"/>
       <c r="P13" s="53"/>
-      <c r="S13" s="9"/>
+      <c r="S13" s="10"/>
       <c r="T13" s="54"/>
       <c r="U13" s="55"/>
       <c r="V13" s="56"/>
@@ -4726,7 +3597,7 @@
       <c r="N14" s="52"/>
       <c r="O14" s="28"/>
       <c r="P14" s="53"/>
-      <c r="S14" s="9"/>
+      <c r="S14" s="10"/>
       <c r="T14" s="54"/>
       <c r="U14" s="55"/>
       <c r="V14" s="56"/>
@@ -4756,7 +3627,7 @@
       <c r="N15" s="52"/>
       <c r="O15" s="28"/>
       <c r="P15" s="53"/>
-      <c r="S15" s="9"/>
+      <c r="S15" s="10"/>
       <c r="T15" s="54"/>
       <c r="U15" s="55"/>
       <c r="V15" s="56"/>
@@ -4786,7 +3657,7 @@
       <c r="N16" s="52"/>
       <c r="O16" s="28"/>
       <c r="P16" s="53"/>
-      <c r="S16" s="9"/>
+      <c r="S16" s="10"/>
       <c r="T16" s="54"/>
       <c r="U16" s="55"/>
       <c r="V16" s="56"/>
@@ -4816,7 +3687,7 @@
       <c r="N17" s="52"/>
       <c r="O17" s="28"/>
       <c r="P17" s="53"/>
-      <c r="S17" s="9"/>
+      <c r="S17" s="10"/>
       <c r="T17" s="54"/>
       <c r="U17" s="55"/>
       <c r="V17" s="56"/>
@@ -4846,7 +3717,7 @@
       <c r="N18" s="52"/>
       <c r="O18" s="28"/>
       <c r="P18" s="53"/>
-      <c r="S18" s="9"/>
+      <c r="S18" s="10"/>
       <c r="T18" s="54"/>
       <c r="U18" s="55"/>
       <c r="V18" s="56"/>
@@ -4876,7 +3747,7 @@
       <c r="N19" s="52"/>
       <c r="O19" s="28"/>
       <c r="P19" s="53"/>
-      <c r="S19" s="9"/>
+      <c r="S19" s="10"/>
       <c r="T19" s="54"/>
       <c r="U19" s="55"/>
       <c r="V19" s="56"/>
@@ -4906,7 +3777,7 @@
       <c r="N20" s="52"/>
       <c r="O20" s="28"/>
       <c r="P20" s="53"/>
-      <c r="S20" s="9"/>
+      <c r="S20" s="10"/>
       <c r="T20" s="54"/>
       <c r="U20" s="55"/>
       <c r="V20" s="56"/>
@@ -4936,7 +3807,7 @@
       <c r="N21" s="52"/>
       <c r="O21" s="28"/>
       <c r="P21" s="53"/>
-      <c r="S21" s="9"/>
+      <c r="S21" s="10"/>
       <c r="T21" s="54"/>
       <c r="U21" s="55"/>
       <c r="V21" s="56"/>
@@ -4966,7 +3837,7 @@
       <c r="N22" s="52"/>
       <c r="O22" s="28"/>
       <c r="P22" s="53"/>
-      <c r="S22" s="9"/>
+      <c r="S22" s="10"/>
       <c r="T22" s="54"/>
       <c r="U22" s="55"/>
       <c r="V22" s="56"/>
@@ -4996,7 +3867,7 @@
       <c r="N23" s="52"/>
       <c r="O23" s="28"/>
       <c r="P23" s="53"/>
-      <c r="S23" s="9"/>
+      <c r="S23" s="10"/>
       <c r="T23" s="54"/>
       <c r="U23" s="55"/>
       <c r="V23" s="56"/>
@@ -5026,7 +3897,7 @@
       <c r="N24" s="52"/>
       <c r="O24" s="28"/>
       <c r="P24" s="53"/>
-      <c r="S24" s="9"/>
+      <c r="S24" s="10"/>
       <c r="T24" s="54"/>
       <c r="U24" s="55"/>
       <c r="V24" s="56"/>
@@ -5056,7 +3927,7 @@
       <c r="N25" s="52"/>
       <c r="O25" s="28"/>
       <c r="P25" s="53"/>
-      <c r="S25" s="9"/>
+      <c r="S25" s="10"/>
       <c r="T25" s="54"/>
       <c r="U25" s="55"/>
       <c r="V25" s="56"/>
@@ -5086,7 +3957,7 @@
       <c r="N26" s="52"/>
       <c r="O26" s="28"/>
       <c r="P26" s="53"/>
-      <c r="S26" s="9"/>
+      <c r="S26" s="10"/>
       <c r="T26" s="54"/>
       <c r="U26" s="55"/>
       <c r="V26" s="56"/>
@@ -5116,7 +3987,7 @@
       <c r="N27" s="52"/>
       <c r="O27" s="28"/>
       <c r="P27" s="53"/>
-      <c r="S27" s="9"/>
+      <c r="S27" s="10"/>
       <c r="T27" s="54"/>
       <c r="U27" s="55"/>
       <c r="V27" s="56"/>
@@ -5146,7 +4017,7 @@
       <c r="N28" s="52"/>
       <c r="O28" s="28"/>
       <c r="P28" s="53"/>
-      <c r="S28" s="9"/>
+      <c r="S28" s="10"/>
       <c r="T28" s="54"/>
       <c r="U28" s="55"/>
       <c r="V28" s="56"/>
@@ -5176,7 +4047,7 @@
       <c r="N29" s="52"/>
       <c r="O29" s="28"/>
       <c r="P29" s="53"/>
-      <c r="S29" s="9"/>
+      <c r="S29" s="10"/>
       <c r="T29" s="54"/>
       <c r="U29" s="55"/>
       <c r="V29" s="56"/>
@@ -5206,7 +4077,7 @@
       <c r="N30" s="52"/>
       <c r="O30" s="28"/>
       <c r="P30" s="53"/>
-      <c r="S30" s="9"/>
+      <c r="S30" s="10"/>
       <c r="T30" s="54"/>
       <c r="U30" s="55"/>
       <c r="V30" s="56"/>
@@ -5232,7 +4103,7 @@
     <mergeCell ref="U4:Z4"/>
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
-  <dataValidations count="15">
+  <dataValidations count="16">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z30 U7:Y30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
@@ -5285,12 +4156,1171 @@
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T30" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+      <formula1>1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:AC30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="29.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="26" min="21" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="27" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="24.87"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
+        <v>Version: 9</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="0"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1"/>
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC5" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" s="28" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="43" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="V6" s="44" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="W6" s="44" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X6" s="44" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="44" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="45" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="41"/>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="53"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="58"/>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="53"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="58"/>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="53"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="58"/>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="47" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="53"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="58"/>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="47" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="53"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="58"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="47" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="53"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="58"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="47" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="53"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="58"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="47" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="53"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="58"/>
+    </row>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="47" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="53"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="58"/>
+    </row>
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="47" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="53"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="58"/>
+    </row>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="47" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="53"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="58"/>
+    </row>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="47" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="53"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="58"/>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="47" t="n">
+        <v>13</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="53"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="58"/>
+    </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="47" t="n">
+        <v>14</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="53"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="58"/>
+    </row>
+    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="47" t="n">
+        <v>15</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="53"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="58"/>
+    </row>
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="47" t="n">
+        <v>16</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="53"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="58"/>
+    </row>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="47" t="n">
+        <v>17</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="53"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="58"/>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="47" t="n">
+        <v>18</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="53"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="58"/>
+    </row>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="47" t="n">
+        <v>19</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="53"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="58"/>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="47" t="n">
+        <v>20</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="53"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="58"/>
+    </row>
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="47" t="n">
+        <v>21</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="53"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="58"/>
+    </row>
+    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="47" t="n">
+        <v>22</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="53"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="58"/>
+    </row>
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="47" t="n">
+        <v>23</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="53"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="58"/>
+    </row>
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="47" t="n">
+        <v>24</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="53"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:Z1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:Z4"/>
+    <mergeCell ref="AA4:AC4"/>
+  </mergeCells>
+  <dataValidations count="16">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z30 U7:Y30" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+      <formula1>"K,L3,L2,L1"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+      <formula1>"unfocused,focused"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+      <formula1>1</formula1>
+      <formula2>24</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
+      <formula1>"Yes,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
+      <formula1>-0.1</formula1>
+      <formula2>8</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+      <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:Q30" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
       <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T30" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+      <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -5311,13 +5341,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -5336,7 +5366,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="59"/>
     </row>
@@ -5414,6 +5444,14 @@
       </c>
       <c r="B13" s="0" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/startup/xlsx/wheel.xlsx
+++ b/startup/xlsx/wheel.xlsx
@@ -25,7 +25,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -54,6 +54,62 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -61,7 +117,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -90,6 +146,62 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -97,7 +209,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -123,6 +235,62 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Do NOT change the value of this cell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
         </r>
       </text>
     </comment>
@@ -611,8 +779,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border diagonalUp="true" diagonalDown="true">
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right style="thin"/>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
@@ -620,7 +790,7 @@
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="medium"/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
@@ -983,9 +1153,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1220400</xdr:colOff>
+      <xdr:colOff>1220040</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -999,12 +1169,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2516400" cy="2737080"/>
+          <a:ext cx="2516760" cy="2736720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -1020,9 +1190,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>819360</xdr:colOff>
+      <xdr:colOff>819000</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1031,8 +1201,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3195360" y="6959880"/>
-          <a:ext cx="6644520" cy="2261160"/>
+          <a:off x="3196080" y="6959880"/>
+          <a:ext cx="6644880" cy="2260800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1284,9 +1454,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1220400</xdr:colOff>
+      <xdr:colOff>1220040</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1300,12 +1470,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2516400" cy="2737080"/>
+          <a:ext cx="2516760" cy="2736720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -1321,9 +1491,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>819360</xdr:colOff>
+      <xdr:colOff>819000</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1332,8 +1502,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3195360" y="6959880"/>
-          <a:ext cx="6644520" cy="2261160"/>
+          <a:off x="3196080" y="6959880"/>
+          <a:ext cx="6644880" cy="2260800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1585,9 +1755,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1220400</xdr:colOff>
+      <xdr:colOff>1220040</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1601,12 +1771,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2516400" cy="2737080"/>
+          <a:ext cx="2516760" cy="2736720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -1622,9 +1792,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>819360</xdr:colOff>
+      <xdr:colOff>819000</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1633,8 +1803,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3195360" y="6959880"/>
-          <a:ext cx="6644520" cy="2261160"/>
+          <a:off x="3196080" y="6959880"/>
+          <a:ext cx="6644880" cy="2260800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1887,10 +2057,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2185,9 +2355,9 @@
         <v>55</v>
       </c>
       <c r="Q6" s="42"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
       <c r="U6" s="43" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -2952,71 +3122,75 @@
     <mergeCell ref="U4:Z4"/>
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
-  <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z30 U7:Y30" type="list">
+  <dataValidations count="16">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z30 U7:Y30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:T30" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q7:T30" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:T6" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3038,10 +3212,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3336,9 +3510,9 @@
         <v>55</v>
       </c>
       <c r="Q6" s="42"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
       <c r="U6" s="43" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -4104,74 +4278,74 @@
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
   <dataValidations count="16">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z30 U7:Y30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z30 U7:Y30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:Q30" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q7:Q30" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T30" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:T6 R7:T30" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4193,10 +4367,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4491,9 +4665,9 @@
         <v>55</v>
       </c>
       <c r="Q6" s="42"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
       <c r="U6" s="43" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -5259,74 +5433,74 @@
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
   <dataValidations count="16">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z30 U7:Y30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z30 U7:Y30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:Q30" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q7:Q30" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T30" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:T6 R7:T30" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5347,7 +5521,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -5457,7 +5631,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/startup/xlsx/wheel.xlsx
+++ b/startup/xlsx/wheel.xlsx
@@ -25,7 +25,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -117,7 +117,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -209,7 +209,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -299,7 +299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="69">
   <si>
     <t xml:space="preserve">Sample wheel</t>
   </si>
@@ -503,6 +503,9 @@
   </si>
   <si>
     <t xml:space="preserve">Loop over entire macro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add slit height to glancing angle spreadsheet</t>
   </si>
 </sst>
 </file>
@@ -1153,9 +1156,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1220040</xdr:colOff>
+      <xdr:colOff>1219680</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1169,12 +1172,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2516760" cy="2736720"/>
+          <a:ext cx="2517840" cy="2736360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -1190,9 +1193,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>819000</xdr:colOff>
+      <xdr:colOff>818640</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1201,8 +1204,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3196080" y="6959880"/>
-          <a:ext cx="6644880" cy="2260800"/>
+          <a:off x="3197160" y="6959880"/>
+          <a:ext cx="6645960" cy="2260440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1454,9 +1457,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1220040</xdr:colOff>
+      <xdr:colOff>1219680</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1470,12 +1473,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2516760" cy="2736720"/>
+          <a:ext cx="2517840" cy="2736360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -1491,9 +1494,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>819000</xdr:colOff>
+      <xdr:colOff>818640</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1502,8 +1505,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3196080" y="6959880"/>
-          <a:ext cx="6644880" cy="2260800"/>
+          <a:off x="3197160" y="6959880"/>
+          <a:ext cx="6645960" cy="2260440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1755,9 +1758,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1220040</xdr:colOff>
+      <xdr:colOff>1219680</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1771,12 +1774,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2516760" cy="2736720"/>
+          <a:ext cx="2517840" cy="2736360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -1792,9 +1795,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>819000</xdr:colOff>
+      <xdr:colOff>818640</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1803,8 +1806,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3196080" y="6959880"/>
-          <a:ext cx="6644880" cy="2260800"/>
+          <a:off x="3197160" y="6959880"/>
+          <a:ext cx="6645960" cy="2260440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2060,7 +2063,7 @@
       <selection pane="bottomRight" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2114,7 +2117,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 9</v>
+        <v>Version: 10</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -3123,74 +3126,74 @@
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
   <dataValidations count="16">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z30 U7:Y30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z30 U7:Y30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q7:T30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q7:T30" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:T6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:T6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3215,7 +3218,7 @@
       <selection pane="bottomRight" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3269,7 +3272,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 9</v>
+        <v>Version: 10</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -4278,74 +4281,74 @@
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
   <dataValidations count="16">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z30 U7:Y30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z30 U7:Y30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q7:Q30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q7:Q30" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:T6 R7:T30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:T6 R7:T30" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4370,7 +4373,7 @@
       <selection pane="bottomRight" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4424,7 +4427,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 9</v>
+        <v>Version: 10</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -5433,74 +5436,74 @@
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
   <dataValidations count="16">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z30 U7:Y30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z30 U7:Y30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q7:Q30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q7:Q30" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:T6 R7:T30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:T6 R7:T30" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5515,13 +5518,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -5540,7 +5543,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="59"/>
     </row>
@@ -5628,10 +5631,18 @@
         <v>67</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/startup/xlsx/wheel.xlsx
+++ b/startup/xlsx/wheel.xlsx
@@ -1156,9 +1156,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1219680</xdr:colOff>
+      <xdr:colOff>1219320</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1172,7 +1172,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2517840" cy="2736360"/>
+          <a:ext cx="2518200" cy="2736000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1193,9 +1193,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>818640</xdr:colOff>
+      <xdr:colOff>818280</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1204,8 +1204,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3197160" y="6959880"/>
-          <a:ext cx="6645960" cy="2260440"/>
+          <a:off x="3197880" y="6959880"/>
+          <a:ext cx="6645960" cy="2260080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1457,9 +1457,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1219680</xdr:colOff>
+      <xdr:colOff>1219320</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1473,7 +1473,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2517840" cy="2736360"/>
+          <a:ext cx="2518200" cy="2736000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1494,9 +1494,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>818640</xdr:colOff>
+      <xdr:colOff>818280</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1505,8 +1505,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3197160" y="6959880"/>
-          <a:ext cx="6645960" cy="2260440"/>
+          <a:off x="3197880" y="6959880"/>
+          <a:ext cx="6645960" cy="2260080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1758,9 +1758,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1219680</xdr:colOff>
+      <xdr:colOff>1219320</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1774,7 +1774,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2517840" cy="2736360"/>
+          <a:ext cx="2518200" cy="2736000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1795,9 +1795,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>818640</xdr:colOff>
+      <xdr:colOff>818280</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1806,8 +1806,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3197160" y="6959880"/>
-          <a:ext cx="6645960" cy="2260440"/>
+          <a:off x="3197880" y="6959880"/>
+          <a:ext cx="6645960" cy="2260080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2060,10 +2060,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2370,8 +2370,8 @@
         <v>1</v>
       </c>
       <c r="W6" s="44" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="X6" s="44" t="n">
         <f aca="false">FALSE()</f>
@@ -3125,8 +3125,8 @@
     <mergeCell ref="U4:Z4"/>
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
-  <dataValidations count="16">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z30 U7:Y30" type="list">
+  <dataValidations count="17">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U7:Z30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3149,10 +3149,6 @@
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
-      <formula1>-0.1</formula1>
-      <formula2>8</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
@@ -3178,17 +3174,25 @@
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
-      <formula1>"True,False"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:T6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:S6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T6" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z6" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
+      <formula1>-0.1</formula1>
+      <formula2>8</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3215,10 +3219,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Q6" activeCellId="0" sqref="Q6"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3525,8 +3529,8 @@
         <v>1</v>
       </c>
       <c r="W6" s="44" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="X6" s="44" t="n">
         <f aca="false">FALSE()</f>
@@ -4280,8 +4284,8 @@
     <mergeCell ref="U4:Z4"/>
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
-  <dataValidations count="16">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z30 U7:Y30" type="list">
+  <dataValidations count="17">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U7:Z30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4304,10 +4308,6 @@
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
-      <formula1>-0.1</formula1>
-      <formula2>8</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
@@ -4333,17 +4333,25 @@
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
-      <formula1>"True,False"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:T6 R7:T30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:S6 R7:T30" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T6" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z6" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
+      <formula1>-0.1</formula1>
+      <formula2>8</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4370,10 +4378,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Q6" activeCellId="0" sqref="Q6"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4680,8 +4688,8 @@
         <v>1</v>
       </c>
       <c r="W6" s="44" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="X6" s="44" t="n">
         <f aca="false">FALSE()</f>
@@ -5435,8 +5443,8 @@
     <mergeCell ref="U4:Z4"/>
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
-  <dataValidations count="16">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z30 U7:Y30" type="list">
+  <dataValidations count="17">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U7:Z30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5459,10 +5467,6 @@
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
-      <formula1>-0.1</formula1>
-      <formula2>8</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
@@ -5488,17 +5492,25 @@
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
-      <formula1>"True,False"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:T6 R7:T30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:S6 R7:T30" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T6" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z6" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
+      <formula1>-0.1</formula1>
+      <formula2>8</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5524,7 +5536,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>

--- a/startup/xlsx/wheel.xlsx
+++ b/startup/xlsx/wheel.xlsx
@@ -299,7 +299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="70">
   <si>
     <t xml:space="preserve">Sample wheel</t>
   </si>
@@ -506,6 +506,9 @@
   </si>
   <si>
     <t xml:space="preserve">add slit height to glancing angle spreadsheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add a third motor to the grid spreadsheet</t>
   </si>
 </sst>
 </file>
@@ -1156,9 +1159,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1219320</xdr:colOff>
+      <xdr:colOff>1218960</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1172,7 +1175,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2518200" cy="2736000"/>
+          <a:ext cx="2518200" cy="2735640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1193,9 +1196,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>818280</xdr:colOff>
+      <xdr:colOff>817920</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1204,8 +1207,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3197880" y="6959880"/>
-          <a:ext cx="6645960" cy="2260080"/>
+          <a:off x="3198600" y="6959880"/>
+          <a:ext cx="6646320" cy="2259720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1457,9 +1460,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1219320</xdr:colOff>
+      <xdr:colOff>1218960</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1473,7 +1476,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2518200" cy="2736000"/>
+          <a:ext cx="2518200" cy="2735640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1494,9 +1497,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>818280</xdr:colOff>
+      <xdr:colOff>817920</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1505,8 +1508,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3197880" y="6959880"/>
-          <a:ext cx="6645960" cy="2260080"/>
+          <a:off x="3198600" y="6959880"/>
+          <a:ext cx="6646320" cy="2259720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1758,9 +1761,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1219320</xdr:colOff>
+      <xdr:colOff>1218960</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1774,7 +1777,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2518200" cy="2736000"/>
+          <a:ext cx="2518200" cy="2735640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1795,9 +1798,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>818280</xdr:colOff>
+      <xdr:colOff>817920</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1806,8 +1809,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3197880" y="6959880"/>
-          <a:ext cx="6645960" cy="2260080"/>
+          <a:off x="3198600" y="6959880"/>
+          <a:ext cx="6646320" cy="2259720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2063,7 +2066,7 @@
       <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2117,7 +2120,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 10</v>
+        <v>Version: 11</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -3222,7 +3225,7 @@
       <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3276,7 +3279,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 10</v>
+        <v>Version: 11</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -4381,7 +4384,7 @@
       <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4435,7 +4438,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 10</v>
+        <v>Version: 11</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -5530,13 +5533,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -5555,7 +5558,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="59"/>
     </row>
@@ -5649,6 +5652,14 @@
       </c>
       <c r="B15" s="0" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/startup/xlsx/wheel.xlsx
+++ b/startup/xlsx/wheel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="wheel1" sheetId="1" state="visible" r:id="rId2"/>
@@ -299,7 +299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="71">
   <si>
     <t xml:space="preserve">Sample wheel</t>
   </si>
@@ -509,6 +509,9 @@
   </si>
   <si>
     <t xml:space="preserve">add a third motor to the grid spreadsheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added orientation and retraction distance to glancing angle spreadsheet</t>
   </si>
 </sst>
 </file>
@@ -1159,9 +1162,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1218960</xdr:colOff>
+      <xdr:colOff>1218600</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1175,7 +1178,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2518200" cy="2735640"/>
+          <a:ext cx="2519280" cy="2735280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1196,9 +1199,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>817920</xdr:colOff>
+      <xdr:colOff>817560</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>90360</xdr:rowOff>
+      <xdr:rowOff>90000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1207,8 +1210,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3198600" y="6959880"/>
-          <a:ext cx="6646320" cy="2259720"/>
+          <a:off x="3199680" y="6959880"/>
+          <a:ext cx="6647400" cy="2259360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1460,9 +1463,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1218960</xdr:colOff>
+      <xdr:colOff>1218600</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1476,7 +1479,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2518200" cy="2735640"/>
+          <a:ext cx="2519280" cy="2735280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1497,9 +1500,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>817920</xdr:colOff>
+      <xdr:colOff>817560</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>90360</xdr:rowOff>
+      <xdr:rowOff>90000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1508,8 +1511,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3198600" y="6959880"/>
-          <a:ext cx="6646320" cy="2259720"/>
+          <a:off x="3199680" y="6959880"/>
+          <a:ext cx="6647400" cy="2259360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1761,9 +1764,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1218960</xdr:colOff>
+      <xdr:colOff>1218600</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1777,7 +1780,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2518200" cy="2735640"/>
+          <a:ext cx="2519280" cy="2735280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1798,9 +1801,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>817920</xdr:colOff>
+      <xdr:colOff>817560</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>90360</xdr:rowOff>
+      <xdr:rowOff>90000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1809,8 +1812,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3198600" y="6959880"/>
-          <a:ext cx="6646320" cy="2259720"/>
+          <a:off x="3199680" y="6959880"/>
+          <a:ext cx="6647400" cy="2259360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2058,15 +2061,15 @@
   </sheetPr>
   <dimension ref="B1:AC30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2120,7 +2123,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 11</v>
+        <v>Version: 12</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -3225,7 +3228,7 @@
       <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3279,7 +3282,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 11</v>
+        <v>Version: 12</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -4384,7 +4387,7 @@
       <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4438,7 +4441,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 11</v>
+        <v>Version: 12</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -5533,13 +5536,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -5558,7 +5561,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="59"/>
     </row>
@@ -5660,6 +5663,14 @@
       </c>
       <c r="B16" s="0" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
